--- a/regions/6/kultura/kultura.xlsx
+++ b/regions/6/kultura/kultura.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\მუზ. რუკის რეგ. 2023 ---გიგას\Imereti\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF82FA62-73A1-4EE2-85FC-F115168E0500}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="1785" windowWidth="21975" windowHeight="9810"/>
+    <workbookView xWindow="13155" yWindow="870" windowWidth="10935" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>მონაცემები თეატრების, მუზეუმების და მუზეუმ-ნაკრძალების მუშაობის შესახებ იმერეთის რეგიონში</t>
   </si>
@@ -28,7 +34,13 @@
     <t>მაყურებელთა რიცხოვნობა, ათასი კაცი</t>
   </si>
   <si>
+    <t xml:space="preserve">მუზეუმების  რიცხვი, ერთეული </t>
+  </si>
+  <si>
     <t>დამთვალიერებელთა რიცხვი, ათასი კაცი</t>
+  </si>
+  <si>
+    <t>დამთვალიერებელთა რაოდენობა მოსახლეობის 1000 კაცზე</t>
   </si>
   <si>
     <t>ექსკურსიების რიცხვი, ერთეული</t>
@@ -36,82 +48,71 @@
   <si>
     <t>გამოფენების რიცხვი, ერთეული</t>
   </si>
-  <si>
-    <t xml:space="preserve">მუზეუმების  რიცხვი, ერთეული </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -143,7 +144,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -151,80 +152,92 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{E76F4EA0-9FA9-45A1-B50A-985ADFB1F9AD}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -247,44 +260,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -314,12 +327,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -358,160 +371,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -522,311 +506,333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="1" customWidth="1"/>
-    <col min="2" max="18" width="8.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="21">
+    <row r="2" spans="1:20">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2">
         <v>2005</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="2">
         <v>2006</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="2">
         <v>2007</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="2">
         <v>2008</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="2">
         <v>2009</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="2">
         <v>2010</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="2">
         <v>2011</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="2">
         <v>2012</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="2">
         <v>2013</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="2">
         <v>2014</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="2">
         <v>2015</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="2">
         <v>2016</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="2">
         <v>2017</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="2">
         <v>2018</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="2">
         <v>2019</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="2">
         <v>2020</v>
       </c>
-      <c r="R2" s="21">
+      <c r="R2" s="2">
         <v>2021</v>
       </c>
+      <c r="S2" s="2">
+        <v>2022</v>
+      </c>
+      <c r="T2" s="2">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:20" ht="15.75">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>6</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>5</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>6</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>6</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>9</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>9</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>8</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>8</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="12">
         <v>8</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="13">
         <v>8</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="13">
         <v>8</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="13">
         <v>8</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="13">
         <v>8</v>
       </c>
+      <c r="S3" s="13">
+        <v>8</v>
+      </c>
+      <c r="T3" s="13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:20" ht="15.75">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>428</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>443</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>469</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>390</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>391</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>410</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>460</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>519</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>614</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>649</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>630</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>620</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="12">
         <v>648</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="13">
         <v>640</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="13">
         <v>470</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="13">
         <v>104</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="13">
         <v>237</v>
       </c>
+      <c r="S4" s="22">
+        <v>462</v>
+      </c>
+      <c r="T4" s="22">
+        <v>438</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:20" ht="15.75">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>29</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>42</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>46</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>26</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>28</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>28</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>36</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>40</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>73</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>81</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>83</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>82</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="12">
         <v>90</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="13">
         <v>87</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="14">
         <v>60.268999999999998</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="14">
         <v>17</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="14">
         <v>24.891999999999999</v>
       </c>
+      <c r="S5" s="23">
+        <v>54.829000000000001</v>
+      </c>
+      <c r="T5" s="23">
+        <v>58.484000000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="6" spans="1:20" ht="15.75">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
         <v>21</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>26</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>26</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>21</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>22</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>25</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>27</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>27</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>27</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>27</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>27</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>27</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="12">
         <v>35</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="13">
         <v>37</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="15">
         <v>38</v>
       </c>
       <c r="Q6" s="24">
@@ -835,180 +841,262 @@
       <c r="R6" s="24">
         <v>37</v>
       </c>
+      <c r="S6" s="24">
+        <v>40</v>
+      </c>
+      <c r="T6" s="24">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="7" spans="1:20" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
         <v>49.3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>53.4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>109.2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>61.5</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>70.2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>83.8</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="5">
         <v>65.099999999999994</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="5">
         <v>59.2</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <v>58.5</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>62.6</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>80.099999999999994</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="16">
         <v>82</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="17">
         <v>94.590999999999994</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="17">
         <v>85.2</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="17">
         <v>79.995999999999995</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="17">
         <v>15.545999999999999</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="17">
         <v>47.4</v>
       </c>
+      <c r="S7" s="17">
+        <v>98.802000000000007</v>
+      </c>
+      <c r="T7" s="17">
+        <v>99.409000000000006</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13">
+    <row r="8" spans="1:20" ht="30">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>66.983122362869196</v>
+      </c>
+      <c r="C8" s="7">
+        <v>89.979880903034001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>186.249277260703</v>
+      </c>
+      <c r="E8" s="7">
+        <v>106.20000828878101</v>
+      </c>
+      <c r="F8" s="7">
+        <v>122.64547334251699</v>
+      </c>
+      <c r="G8" s="7">
+        <v>148.575106223223</v>
+      </c>
+      <c r="H8" s="7">
+        <v>117.37636508763001</v>
+      </c>
+      <c r="I8" s="7">
+        <v>108.370518667968</v>
+      </c>
+      <c r="J8" s="7">
+        <v>108.18245556914199</v>
+      </c>
+      <c r="K8" s="7">
+        <v>117.18252428092499</v>
+      </c>
+      <c r="L8" s="7">
+        <v>151.827104234877</v>
+      </c>
+      <c r="M8" s="7">
+        <v>158.01276987634699</v>
+      </c>
+      <c r="N8" s="7">
+        <v>185.21125588507999</v>
+      </c>
+      <c r="O8" s="7">
+        <v>169.613931826282</v>
+      </c>
+      <c r="P8" s="7">
+        <v>162.530895112553</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>32.104711003907198</v>
+      </c>
+      <c r="R8" s="7">
+        <v>99.928173724661704</v>
+      </c>
+      <c r="S8" s="7">
+        <v>212.542324752935</v>
+      </c>
+      <c r="T8" s="7">
+        <v>219.60759190264801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
         <v>1214</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C9" s="9">
         <v>2080</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="9">
         <v>2839</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="9">
         <v>3391</v>
       </c>
-      <c r="F8" s="13">
-        <v>4009.0000000000005</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="F9" s="9">
+        <v>4009</v>
+      </c>
+      <c r="G9" s="9">
         <v>4292</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="9">
         <v>2514</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="9">
         <v>3306</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J9" s="9">
         <v>2493</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K9" s="9">
         <v>2432</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L9" s="9">
         <v>2870</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M9" s="18">
         <v>2769</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N9" s="19">
         <v>4077</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O9" s="19">
         <v>5145</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P9" s="9">
         <v>4967</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q9" s="9">
         <v>511</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R9" s="9">
         <v>2851</v>
       </c>
+      <c r="S9" s="9">
+        <v>4662</v>
+      </c>
+      <c r="T9" s="25">
+        <v>4522</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="18">
+    <row r="10" spans="1:20" ht="15.75">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
         <v>48</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C10" s="11">
         <v>63</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D10" s="11">
         <v>62</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E10" s="11">
         <v>53</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F10" s="11">
         <v>71</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G10" s="11">
         <v>92</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H10" s="11">
         <v>83</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I10" s="11">
         <v>66</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J10" s="11">
         <v>72</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K10" s="11">
         <v>82</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L10" s="11">
         <v>97</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M10" s="20">
         <v>89</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N10" s="20">
         <v>109</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O10" s="20">
         <v>111</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P10" s="21">
         <v>132</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q10" s="21">
         <v>78</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R10" s="21">
         <v>106</v>
+      </c>
+      <c r="S10" s="21">
+        <v>135</v>
+      </c>
+      <c r="T10" s="26">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>